--- a/biology/Botanique/Pilea/Pilea.xlsx
+++ b/biology/Botanique/Pilea/Pilea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pilea est un genre de plantes à fleurs de la famille des Urticaceae, dont il représente la plus grande part. Les espèces sont présentes dans les zones tropicales, subtropicales et tempérées chaudes, hormis l'Australie et de la Nouvelle-Zélande. À de rares exceptions près, ce sont des arbustes ou herbacées succulentes, préférant les situations ombragées, qui sont presque tous facilement reconnaissables des autres Urticacées par l'association de feuilles opposées, avec stipule ligulée sur chaque axe foliaire et des inflorescences en cyme ou en panicule.
 </t>
@@ -511,7 +523,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs espèces sont couramment cultivées comme plantes d'intérieur ou de terrarium. Elles sont appréciées pour leur feuillage ornemental, un faible développement et leur capacité à supporter le manque de lumière. Notamment Pilea peperomioides, plus communément nommée « plante à monnaie chinoise », une petite plante succulente originaire de Chine au feuillage presque parfaitement rond. Citons aussi Pilea cadierei, dont le feuillage vert et argenté lui vaut le nom vernaculaire de « plante aluminium », et Pilea involucrata aux feuilles gaufrées panachées de brun. 
 </t>
@@ -542,12 +556,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit en 1821 par le botaniste britannique John Lindley.
-En classification phylogénétique APG IV (2016)[1] comme en classification classique de Cronquist (1981)[2], il est assigné à la famille des Urticaceae. Avec 600 à 715 espèces, c'est le plus vaste genre de cette famille. C'est aussi l'un des plus vastes genres des Rosidées, en classification phylogénétique, ou des Urticales, en classification classique.
-Liste d'espèces
-Selon The Plant List            (1 mai 2020)[3] :
+En classification phylogénétique APG IV (2016) comme en classification classique de Cronquist (1981), il est assigné à la famille des Urticaceae. Avec 600 à 715 espèces, c'est le plus vaste genre de cette famille. C'est aussi l'un des plus vastes genres des Rosidées, en classification phylogénétique, ou des Urticales, en classification classique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pilea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pilea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (1 mai 2020) :
 Pilea acuminata Liebm.
 Pilea adamsiana A.K. Monro
 Pilea alaotrae Leandri
@@ -827,7 +878,7 @@
 Pilea weberbaueri Killip
 Pilea wightii Wedd.
 Pilea yunquensis Britton &amp; P.Wilson
-Selon Tropicos                                           (1 mai 2020)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 mai 2020) (Attention liste brute contenant possiblement des synonymes) :
 Pilea abbreviata Urb. &amp; Ekman
 Pilea acanthospermoides Urb. &amp; Ekman
 Pilea acuminata Liebm.
